--- a/Baseball Machine/2021 MLB Score Tracker.xlsx
+++ b/Baseball Machine/2021 MLB Score Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Baseball Stuff\MLB Team Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\SportsStuff\TheMachine\the-machine\Baseball Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07D1F3-9583-4AD7-AEA3-025A4AA6F125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36776415-F4F5-4083-BFE1-F6BA8C761FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95890151-4217-49EC-AD2F-A8A3822914D8}"/>
+    <workbookView xWindow="-23148" yWindow="3804" windowWidth="23256" windowHeight="12576" xr2:uid="{95890151-4217-49EC-AD2F-A8A3822914D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>VisitorRunsScored</t>
   </si>
   <si>
-    <t>HomeRunsScore</t>
-  </si>
-  <si>
     <t>F5_VisitorRunsScored</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Mets</t>
+  </si>
+  <si>
+    <t>HomeRunsScored</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D60B63-5E83-4991-8739-3A2941F452BA}">
   <dimension ref="A1:G2109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2078" workbookViewId="0">
-      <selection activeCell="A2109" sqref="A2109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,13 +538,13 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>44304</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -3059,7 +3059,7 @@
         <v>44306</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -3404,7 +3404,7 @@
         <v>44307</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -3519,7 +3519,7 @@
         <v>44308</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -3729,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -4350,7 +4350,7 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>44316</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -6233,7 +6233,7 @@
         <v>44317</v>
       </c>
       <c r="B249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" t="s">
         <v>4</v>
@@ -6716,7 +6716,7 @@
         <v>44318</v>
       </c>
       <c r="B270" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C270" t="s">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>44319</v>
       </c>
       <c r="B274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C274" t="s">
         <v>20</v>
@@ -7659,7 +7659,7 @@
         <v>44322</v>
       </c>
       <c r="B311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
@@ -7892,7 +7892,7 @@
         <v>26</v>
       </c>
       <c r="C321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D321">
         <v>4</v>
@@ -8352,7 +8352,7 @@
         <v>26</v>
       </c>
       <c r="C341" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D341">
         <v>2</v>
@@ -8536,7 +8536,7 @@
         <v>26</v>
       </c>
       <c r="C349" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -9019,7 +9019,7 @@
         <v>11</v>
       </c>
       <c r="C370" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -9499,7 +9499,7 @@
         <v>44330</v>
       </c>
       <c r="B391" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -9821,7 +9821,7 @@
         <v>44331</v>
       </c>
       <c r="B405" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -10166,7 +10166,7 @@
         <v>44332</v>
       </c>
       <c r="B420" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -10488,7 +10488,7 @@
         <v>44333</v>
       </c>
       <c r="B434" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C434" t="s">
         <v>3</v>
@@ -10695,7 +10695,7 @@
         <v>44334</v>
       </c>
       <c r="B443" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C443" t="s">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>44335</v>
       </c>
       <c r="B458" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C458" t="s">
         <v>3</v>
@@ -11730,7 +11730,7 @@
         <v>44337</v>
       </c>
       <c r="B488" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C488" t="s">
         <v>6</v>
@@ -12121,7 +12121,7 @@
         <v>44338</v>
       </c>
       <c r="B505" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C505" t="s">
         <v>6</v>
@@ -12420,7 +12420,7 @@
         <v>44339</v>
       </c>
       <c r="B518" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C518" t="s">
         <v>6</v>
@@ -12699,7 +12699,7 @@
         <v>23</v>
       </c>
       <c r="C530" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D530">
         <v>3</v>
@@ -12975,7 +12975,7 @@
         <v>23</v>
       </c>
       <c r="C542" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -13849,7 +13849,7 @@
         <v>3</v>
       </c>
       <c r="C580" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D580">
         <v>2</v>
@@ -14628,7 +14628,7 @@
         <v>44347</v>
       </c>
       <c r="B614" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C614" t="s">
         <v>26</v>
@@ -14904,7 +14904,7 @@
         <v>44348</v>
       </c>
       <c r="B626" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C626" t="s">
         <v>26</v>
@@ -15065,7 +15065,7 @@
         <v>44349</v>
       </c>
       <c r="B633" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C633" t="s">
         <v>26</v>
@@ -15479,7 +15479,7 @@
         <v>44350</v>
       </c>
       <c r="B651" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C651" t="s">
         <v>21</v>
@@ -15824,7 +15824,7 @@
         <v>44351</v>
       </c>
       <c r="B666" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C666" t="s">
         <v>21</v>
@@ -16169,7 +16169,7 @@
         <v>44352</v>
       </c>
       <c r="B681" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C681" t="s">
         <v>21</v>
@@ -16491,7 +16491,7 @@
         <v>44353</v>
       </c>
       <c r="B695" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C695" t="s">
         <v>21</v>
@@ -16652,7 +16652,7 @@
         <v>44355</v>
       </c>
       <c r="B702" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C702" t="s">
         <v>11</v>
@@ -17066,7 +17066,7 @@
         <v>44356</v>
       </c>
       <c r="B720" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C720" t="s">
         <v>11</v>
@@ -17621,7 +17621,7 @@
         <v>21</v>
       </c>
       <c r="C744" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D744">
         <v>2</v>
@@ -17966,7 +17966,7 @@
         <v>21</v>
       </c>
       <c r="C759" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D759">
         <v>1</v>
@@ -18265,7 +18265,7 @@
         <v>21</v>
       </c>
       <c r="C772" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D772">
         <v>7</v>
@@ -18564,7 +18564,7 @@
         <v>12</v>
       </c>
       <c r="C785" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D785">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>12</v>
       </c>
       <c r="C800" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D800">
         <v>2</v>
@@ -19369,7 +19369,7 @@
         <v>12</v>
       </c>
       <c r="C820" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D820">
         <v>3</v>
@@ -19576,7 +19576,7 @@
         <v>12</v>
       </c>
       <c r="C829" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D829">
         <v>2</v>
@@ -19757,7 +19757,7 @@
         <v>44365</v>
       </c>
       <c r="B837" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C837" t="s">
         <v>27</v>
@@ -20378,7 +20378,7 @@
         <v>44367</v>
       </c>
       <c r="B864" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C864" t="s">
         <v>27</v>
@@ -20818,7 +20818,7 @@
         <v>3</v>
       </c>
       <c r="C883" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D883">
         <v>3</v>
@@ -21163,7 +21163,7 @@
         <v>3</v>
       </c>
       <c r="C898" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D898">
         <v>3</v>
@@ -22106,7 +22106,7 @@
         <v>4</v>
       </c>
       <c r="C939" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D939">
         <v>3</v>
@@ -22359,7 +22359,7 @@
         <v>4</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D950" s="2">
         <v>4</v>
@@ -22632,7 +22632,7 @@
         <v>44375</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>27</v>
@@ -22816,7 +22816,7 @@
         <v>44376</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>3</v>
@@ -23138,7 +23138,7 @@
         <v>44377</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>3</v>
@@ -23437,7 +23437,7 @@
         <v>44378</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>3</v>
@@ -24058,7 +24058,7 @@
         <v>44380</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1024" s="2" t="s">
         <v>8</v>
@@ -24797,7 +24797,7 @@
         <v>19</v>
       </c>
       <c r="C1056" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1056" s="2">
         <v>2</v>
@@ -25855,7 +25855,7 @@
         <v>13</v>
       </c>
       <c r="C1102" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1102" s="2">
         <v>4</v>
@@ -26476,7 +26476,7 @@
         <v>13</v>
       </c>
       <c r="C1129" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1129" s="2">
         <v>6</v>
@@ -26726,7 +26726,7 @@
         <v>44393</v>
       </c>
       <c r="B1140" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1140" s="2" t="s">
         <v>13</v>
@@ -27071,7 +27071,7 @@
         <v>44394</v>
       </c>
       <c r="B1155" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1155" s="2" t="s">
         <v>13</v>
@@ -27255,7 +27255,7 @@
         <v>44395</v>
       </c>
       <c r="B1163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1163" s="2" t="s">
         <v>13</v>
@@ -27623,7 +27623,7 @@
         <v>44396</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1179" s="2" t="s">
         <v>25</v>
@@ -27899,7 +27899,7 @@
         <v>44397</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1191" s="2" t="s">
         <v>25</v>
@@ -28106,7 +28106,7 @@
         <v>44398</v>
       </c>
       <c r="B1200" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1200" s="2" t="s">
         <v>25</v>
@@ -28707,7 +28707,7 @@
         <v>7</v>
       </c>
       <c r="C1226" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1226" s="2">
         <v>0</v>
@@ -29144,7 +29144,7 @@
         <v>7</v>
       </c>
       <c r="C1245" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1245" s="2">
         <v>10</v>
@@ -29374,7 +29374,7 @@
         <v>7</v>
       </c>
       <c r="C1255" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1255" s="2">
         <v>4</v>
@@ -29788,7 +29788,7 @@
         <v>3</v>
       </c>
       <c r="C1273" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1273" s="2">
         <v>12</v>
@@ -30110,7 +30110,7 @@
         <v>3</v>
       </c>
       <c r="C1287" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1287" s="2">
         <v>1</v>
@@ -30409,7 +30409,7 @@
         <v>3</v>
       </c>
       <c r="C1300" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1300" s="2">
         <v>6</v>
@@ -30777,7 +30777,7 @@
         <v>25</v>
       </c>
       <c r="C1316" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1316" s="2">
         <v>6</v>
@@ -31214,7 +31214,7 @@
         <v>25</v>
       </c>
       <c r="C1335" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1335" s="2">
         <v>4</v>
@@ -31467,7 +31467,7 @@
         <v>25</v>
       </c>
       <c r="C1346" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1346" s="2">
         <v>7</v>
@@ -31763,7 +31763,7 @@
         <v>44410</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1359" s="2" t="s">
         <v>6</v>
@@ -32016,7 +32016,7 @@
         <v>44411</v>
       </c>
       <c r="B1370" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1370" s="2" t="s">
         <v>6</v>
@@ -32407,7 +32407,7 @@
         <v>44412</v>
       </c>
       <c r="B1387" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1387" s="2" t="s">
         <v>6</v>
@@ -32568,7 +32568,7 @@
         <v>44413</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1394" s="2" t="s">
         <v>6</v>
@@ -32890,7 +32890,7 @@
         <v>44414</v>
       </c>
       <c r="B1408" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1408" s="2" t="s">
         <v>4</v>
@@ -33281,7 +33281,7 @@
         <v>44415</v>
       </c>
       <c r="B1425" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1425" s="2" t="s">
         <v>4</v>
@@ -33534,7 +33534,7 @@
         <v>44416</v>
       </c>
       <c r="B1436" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1436" s="2" t="s">
         <v>4</v>
@@ -34917,7 +34917,7 @@
         <v>28</v>
       </c>
       <c r="C1496" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1496" s="2">
         <v>6</v>
@@ -35262,7 +35262,7 @@
         <v>28</v>
       </c>
       <c r="C1511" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1511" s="2">
         <v>2</v>
@@ -35745,7 +35745,7 @@
         <v>28</v>
       </c>
       <c r="C1532" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1532" s="2">
         <v>14</v>
@@ -35949,7 +35949,7 @@
         <v>44424</v>
       </c>
       <c r="B1541" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1541" s="2" t="s">
         <v>24</v>
@@ -36271,7 +36271,7 @@
         <v>44425</v>
       </c>
       <c r="B1555" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1555" s="2" t="s">
         <v>24</v>
@@ -36432,7 +36432,7 @@
         <v>44426</v>
       </c>
       <c r="B1562" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1562" s="2" t="s">
         <v>24</v>
@@ -36869,7 +36869,7 @@
         <v>44427</v>
       </c>
       <c r="B1581" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1581" s="2" t="s">
         <v>28</v>
@@ -37191,7 +37191,7 @@
         <v>44428</v>
       </c>
       <c r="B1595" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1595" s="2" t="s">
         <v>28</v>
@@ -37352,7 +37352,7 @@
         <v>44429</v>
       </c>
       <c r="B1602" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1602" s="2" t="s">
         <v>28</v>
@@ -37835,7 +37835,7 @@
         <v>44430</v>
       </c>
       <c r="B1623" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1623" s="2" t="s">
         <v>28</v>
@@ -38183,7 +38183,7 @@
         <v>24</v>
       </c>
       <c r="C1638" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1638" s="2">
         <v>8</v>
@@ -38505,7 +38505,7 @@
         <v>24</v>
       </c>
       <c r="C1652" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1652" s="2">
         <v>3</v>
@@ -38758,7 +38758,7 @@
         <v>24</v>
       </c>
       <c r="C1663" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1663" s="2">
         <v>3</v>
@@ -39034,7 +39034,7 @@
         <v>27</v>
       </c>
       <c r="C1675" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1675" s="2">
         <v>2</v>
@@ -39494,7 +39494,7 @@
         <v>27</v>
       </c>
       <c r="C1695" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1695" s="2">
         <v>3</v>
@@ -39724,7 +39724,7 @@
         <v>27</v>
       </c>
       <c r="C1705" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1705" s="2">
         <v>4</v>
@@ -40874,7 +40874,7 @@
         <v>6</v>
       </c>
       <c r="C1755" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1755" s="2">
         <v>3</v>
@@ -41009,7 +41009,7 @@
         <v>44442</v>
       </c>
       <c r="B1761" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1761" s="2" t="s">
         <v>27</v>
@@ -41653,7 +41653,7 @@
         <v>44444</v>
       </c>
       <c r="B1789" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1789" s="2" t="s">
         <v>27</v>
@@ -41998,7 +41998,7 @@
         <v>44445</v>
       </c>
       <c r="B1804" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1804" s="2" t="s">
         <v>27</v>
@@ -42320,7 +42320,7 @@
         <v>44446</v>
       </c>
       <c r="B1818" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1818" s="2" t="s">
         <v>6</v>
@@ -42734,7 +42734,7 @@
         <v>44447</v>
       </c>
       <c r="B1836" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1836" s="2" t="s">
         <v>6</v>
@@ -43010,7 +43010,7 @@
         <v>44448</v>
       </c>
       <c r="B1848" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1848" s="2" t="s">
         <v>6</v>
@@ -43243,7 +43243,7 @@
         <v>8</v>
       </c>
       <c r="C1858" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1858" s="2">
         <v>3</v>
@@ -43703,7 +43703,7 @@
         <v>8</v>
       </c>
       <c r="C1878" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1878" s="2">
         <v>8</v>
@@ -44094,7 +44094,7 @@
         <v>8</v>
       </c>
       <c r="C1895" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1895" s="2">
         <v>6</v>
@@ -44186,7 +44186,7 @@
         <v>20</v>
       </c>
       <c r="C1899" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1899" s="2">
         <v>7</v>
@@ -44462,7 +44462,7 @@
         <v>20</v>
       </c>
       <c r="C1911" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1911" s="2">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         <v>20</v>
       </c>
       <c r="C1926" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1926" s="2">
         <v>11</v>
@@ -45313,7 +45313,7 @@
         <v>4</v>
       </c>
       <c r="C1948" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1948" s="2">
         <v>4</v>
@@ -45773,7 +45773,7 @@
         <v>4</v>
       </c>
       <c r="C1968" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1968" s="2">
         <v>5</v>
@@ -46164,7 +46164,7 @@
         <v>4</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1985" s="2">
         <v>2</v>
@@ -46598,7 +46598,7 @@
         <v>44460</v>
       </c>
       <c r="B2004" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2004" s="2" t="s">
         <v>10</v>
@@ -46874,7 +46874,7 @@
         <v>44461</v>
       </c>
       <c r="B2016" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2016" s="2" t="s">
         <v>10</v>
@@ -47472,7 +47472,7 @@
         <v>44463</v>
       </c>
       <c r="B2042" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2042" s="2" t="s">
         <v>19</v>
@@ -47794,7 +47794,7 @@
         <v>44464</v>
       </c>
       <c r="B2056" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2056" s="2" t="s">
         <v>19</v>
@@ -48093,7 +48093,7 @@
         <v>44465</v>
       </c>
       <c r="B2069" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2069" s="2" t="s">
         <v>19</v>
@@ -48832,7 +48832,7 @@
         <v>6</v>
       </c>
       <c r="C2101" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2101" s="2">
         <v>3</v>
@@ -49037,15 +49037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5DA6BC9FBD042B3059C048B147A0C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfde3fb6f92071799eac019d740cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c856a785-ac9a-4b01-a125-5817fcf086ce" xmlns:ns4="caca73db-f771-486c-8b38-7e56f384445e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d5cdf5537d708741c06217b4dc72177" ns3:_="" ns4:_="">
     <xsd:import namespace="c856a785-ac9a-4b01-a125-5817fcf086ce"/>
@@ -49230,6 +49221,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -49237,14 +49237,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC16572-883D-4060-A85D-6B8A87FE0E82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{608C8341-C0B3-4E48-930C-E42D49D536CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49259,6 +49251,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC16572-883D-4060-A85D-6B8A87FE0E82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
